--- a/query_element_4.xlsx
+++ b/query_element_4.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>newsletter</t>
+          <t>subscribe</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>find us</t>
+          <t>search</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>find us</t>
+          <t>address</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>cover letter</t>
         </is>
       </c>
     </row>
@@ -1866,11 +1866,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>find us</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7279,7 +7275,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>cover letter</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7491,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>show password</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8077,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>picture</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8099,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>recommender</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8121,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>major</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8433,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>cover letter</t>
         </is>
       </c>
     </row>
@@ -9525,7 +9521,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>cover letter</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9565,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>cover letter</t>
         </is>
       </c>
     </row>
@@ -16735,7 +16731,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
@@ -16757,7 +16753,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
@@ -16779,7 +16775,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16797,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
@@ -16823,7 +16819,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>pronoun</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
@@ -17523,7 +17519,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>university</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17541,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>university</t>
         </is>
       </c>
     </row>
@@ -34155,7 +34151,7 @@
       </c>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>German language level</t>
+          <t>ethnicity</t>
         </is>
       </c>
     </row>
